--- a/medicine/Sexualité et sexologie/Les_Chiennes/Les_Chiennes.xlsx
+++ b/medicine/Sexualité et sexologie/Les_Chiennes/Les_Chiennes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-Les Chiennes (ou Le Manoir aux louves) est un film français de Michel Lemoine tourné en 1972 et sorti en 1973 adapté d'un roman de Jean Breton[1].
+Les Chiennes (ou Le Manoir aux louves) est un film français de Michel Lemoine tourné en 1972 et sorti en 1973 adapté d'un roman de Jean Breton.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Les Chiennes
 Réalisation : Michel Lemoine
@@ -564,9 +580,9 @@
 Laboratoires : LTC Joinville
 Son : Studio Marcadet
 Dates de sorties :
- France : 31 mai 1973[2]
+ France : 31 mai 1973
 Visa n°40 113
-Interdit aux moins de 18 ans à sa sortie en salles en France[3].
+Interdit aux moins de 18 ans à sa sortie en salles en France.
 Autres titres connus
  France : Le Manoir aux louves (télévision)
  Italie : Giochi d'amore di un'aritocrata
@@ -598,7 +614,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Janine Reynaud : Viriane
 Michel Lemoine : Éric
@@ -609,7 +627,7 @@
 Virginie Vignon : Martine
 Yves Marouani : Pierre
 Daniel Sismondi : Olivier
-Jean Berger : le mari[4]</t>
+Jean Berger : le mari</t>
         </is>
       </c>
     </row>
@@ -637,7 +655,9 @@
           <t>Éditions en vidéo</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2007 : Édition DVD - Editeur : KVP - Coffret : Les Classiques de l'érotisme - Michel Lemoine (avec Les Désaxées, Les Confidences érotiques d'un lit trop accueillant et Les petites saintes y touchent) - mention : accord parental</t>
         </is>
